--- a/data/trans_bre/P11_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P11_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.969614431152271</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10.00079244244388</v>
+        <v>10.00079244244389</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3119844980394827</v>
@@ -649,7 +649,7 @@
         <v>1.036604551793196</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5445446895146636</v>
+        <v>0.5445446895146639</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05338777239706038</v>
+        <v>-0.3394145294530677</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.455899945897688</v>
+        <v>4.059820528806006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.340819497033736</v>
+        <v>6.501314343803828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.511239864051545</v>
+        <v>6.418390731489235</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.001621719139191888</v>
+        <v>-0.030822358668714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3405735114586949</v>
+        <v>0.309280856152895</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5702656064729159</v>
+        <v>0.5386486620867207</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3062081346334877</v>
+        <v>0.3077535558151843</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.24993611879061</v>
+        <v>4.138710262581298</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.4422772963416</v>
+        <v>10.38061784252553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.43527057680346</v>
+        <v>13.34149063038564</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.8806157480928</v>
+        <v>14.24396849795813</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7414647673342372</v>
+        <v>0.7322615178881304</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.10616690603374</v>
+        <v>1.071756320586704</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.657048816637148</v>
+        <v>1.644968713765802</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8795390028470527</v>
+        <v>0.9243828837309152</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.56095181241218</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.254029101937363</v>
+        <v>2.254029101937364</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.649850585695071</v>
@@ -749,7 +749,7 @@
         <v>0.9034122994455762</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3537085593156321</v>
+        <v>0.3537085593156323</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06187809642555268</v>
+        <v>0.1905633508250723</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9502266991966409</v>
+        <v>0.9101522083624198</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.311296071770588</v>
+        <v>1.348334922711948</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9386636723925177</v>
+        <v>0.6121911059052741</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01617285052900187</v>
+        <v>0.0139225734079597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2733506540797924</v>
+        <v>0.2667173208597152</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4023480692242651</v>
+        <v>0.333584381914526</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1155981297300621</v>
+        <v>0.07624602331324035</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.167239126750041</v>
+        <v>2.230813631770453</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.851856306007585</v>
+        <v>3.654719825662502</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.791889422622454</v>
+        <v>3.939444441006489</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.793469785111511</v>
+        <v>3.661252806407767</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.590802322278035</v>
+        <v>1.612535166794747</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.687715511462514</v>
+        <v>1.625091164941226</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.667725561288746</v>
+        <v>1.68240185669984</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6523924469780777</v>
+        <v>0.6619723984050229</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.18937276969916</v>
+        <v>-2.392280288626579</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.690221844899646</v>
+        <v>-1.74663802540995</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4633815654622712</v>
+        <v>0.5770060489438387</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3916223923029967</v>
+        <v>-0.3914986706193334</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6358768789472649</v>
+        <v>-0.6485974467286318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.609499363144788</v>
+        <v>-0.5673454775127849</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07457175602525219</v>
+        <v>0.131121020611381</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08582952776915372</v>
+        <v>-0.0949452729957815</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.754330505250924</v>
+        <v>1.721347104415867</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.60356722986617</v>
+        <v>2.728934995117879</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.008145058594958</v>
+        <v>4.713314349616969</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.027815158779164</v>
+        <v>3.902326260580805</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.220664424728122</v>
+        <v>1.088394167845131</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.607053559689861</v>
+        <v>2.643638108672157</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.17029863248779</v>
+        <v>5.048122470843264</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.257049255484978</v>
+        <v>1.189832650295387</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.007383766405193</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.542899710586096</v>
+        <v>4.542899710586092</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.481855189087979</v>
@@ -949,7 +949,7 @@
         <v>1.203599001439834</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5734311460183377</v>
+        <v>0.573431146018337</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7141021993074498</v>
+        <v>0.6201274263857316</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.392393637002324</v>
+        <v>3.395624327217649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.831680093025465</v>
+        <v>3.818418783776634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.320407766841254</v>
+        <v>3.354778707954092</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1813108761904857</v>
+        <v>0.1508544885759781</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6101838944146181</v>
+        <v>0.5913291231403029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8321364511189235</v>
+        <v>0.8226027395715615</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3782854847709864</v>
+        <v>0.384189884805429</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.740776775961836</v>
+        <v>2.753876543988977</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.032938637393896</v>
+        <v>5.971013790043804</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.251639182352895</v>
+        <v>6.287844981434966</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.767641225731408</v>
+        <v>5.809763219694044</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8998914807043537</v>
+        <v>0.8893370175705622</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.344134207325223</v>
+        <v>1.336297177113286</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.752769039502613</v>
+        <v>1.736272216798778</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7827031049488852</v>
+        <v>0.8039568170617781</v>
       </c>
     </row>
     <row r="16">
